--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5006,6 +5006,40 @@
         <v>0.132</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ene2021_05</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>190195.9142827009</v>
+      </c>
+      <c r="C137">
+        <v>1742161.225087195</v>
+      </c>
+      <c r="D137">
+        <v>2021</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2">
+        <v>44317</v>
+      </c>
+      <c r="G137">
+        <v>79509.56670808405</v>
+      </c>
+      <c r="H137">
+        <v>221653.2296618781</v>
+      </c>
+      <c r="I137">
+        <v>0.418</v>
+      </c>
+      <c r="J137">
+        <v>0.127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5040,6 +5040,40 @@
         <v>0.127</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ene2021_06</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>197311.2401013848</v>
+      </c>
+      <c r="C138">
+        <v>1746445.48920599</v>
+      </c>
+      <c r="D138">
+        <v>2021</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" s="2">
+        <v>44348</v>
+      </c>
+      <c r="G138">
+        <v>86714.73119030202</v>
+      </c>
+      <c r="H138">
+        <v>225929.2785032362</v>
+      </c>
+      <c r="I138">
+        <v>0.439</v>
+      </c>
+      <c r="J138">
+        <v>0.129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
+++ b/Datos informalidad/Output/Datos RIED/datos_grafico_informales_comparada.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5074,6 +5074,40 @@
         <v>0.129</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ene2021_07</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>203028.3863178733</v>
+      </c>
+      <c r="C139">
+        <v>1774471.605424773</v>
+      </c>
+      <c r="D139">
+        <v>2021</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+      <c r="F139" s="2">
+        <v>44378</v>
+      </c>
+      <c r="G139">
+        <v>92924.7739231006</v>
+      </c>
+      <c r="H139">
+        <v>234722.7817049359</v>
+      </c>
+      <c r="I139">
+        <v>0.458</v>
+      </c>
+      <c r="J139">
+        <v>0.132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
